--- a/cos/ass1/manualSim.xlsx
+++ b/cos/ass1/manualSim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>hrrn,Td=6,Ts=0</t>
   </si>
@@ -62,6 +62,21 @@
   <si>
     <t>cycle:</t>
   </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>hrrnTd=25Ts=0</t>
+  </si>
+  <si>
+    <t>*7</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>avgResp:</t>
+  </si>
 </sst>
 </file>
 
@@ -84,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,32 +116,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ83"/>
+  <dimension ref="A1:AT95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="AI66" sqref="AI66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -437,23 +449,28 @@
     <col min="24" max="25" width="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.21875" customWidth="1"/>
     <col min="27" max="27" width="4.33203125" customWidth="1"/>
-    <col min="28" max="30" width="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.33203125" customWidth="1"/>
-    <col min="32" max="32" width="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="38" width="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="34" width="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4.33203125" customWidth="1"/>
+    <col min="41" max="41" width="4.88671875" customWidth="1"/>
     <col min="42" max="42" width="10" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.33203125" customWidth="1"/>
+    <col min="45" max="45" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
@@ -462,7 +479,7 @@
       <c r="B2">
         <v>1.5</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="2"/>
       <c r="G2">
         <v>1.5</v>
       </c>
@@ -471,7 +488,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
@@ -480,7 +497,7 @@
       <c r="C4">
         <v>1.5</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="2"/>
       <c r="H4">
         <v>1.5</v>
       </c>
@@ -489,7 +506,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
@@ -498,13 +515,13 @@
       <c r="D6">
         <v>1.5</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
@@ -513,19 +530,19 @@
       <c r="E8">
         <v>1.5</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>1.5</v>
       </c>
     </row>
@@ -535,13 +552,13 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
@@ -556,7 +573,7 @@
       <c r="I14" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="2"/>
       <c r="L14">
         <v>1</v>
       </c>
@@ -568,7 +585,7 @@
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="K15" s="3"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
@@ -580,13 +597,13 @@
       <c r="E16">
         <v>1.5</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:43">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:43">
       <c r="A18">
@@ -598,13 +615,13 @@
       <c r="G18">
         <v>1.5</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:43">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="K19" s="3"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:43">
       <c r="A20">
@@ -616,13 +633,13 @@
       <c r="I20">
         <v>1.5</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:43">
       <c r="A21">
         <v>7</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:43">
       <c r="A22">
@@ -631,7 +648,7 @@
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>1.5</v>
       </c>
     </row>
@@ -639,7 +656,7 @@
       <c r="A23">
         <v>9</v>
       </c>
-      <c r="K23" s="3"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="25" spans="1:43">
       <c r="A25" t="s">
@@ -662,7 +679,7 @@
       <c r="Z26">
         <v>1.5</v>
       </c>
-      <c r="AG26" s="3"/>
+      <c r="AG26" s="2"/>
       <c r="AH26">
         <v>1.5</v>
       </c>
@@ -680,7 +697,7 @@
       <c r="Y27">
         <v>3</v>
       </c>
-      <c r="AG27" s="3"/>
+      <c r="AG27" s="2"/>
       <c r="AM27">
         <v>3</v>
       </c>
@@ -688,8 +705,8 @@
         <v>11</v>
       </c>
       <c r="AQ27">
-        <f>(7.5+9)*4/4</f>
-        <v>16.5</v>
+        <f>(7.5+9)*4/4-15</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -708,7 +725,7 @@
       <c r="AA28">
         <v>1.5</v>
       </c>
-      <c r="AG28" s="3"/>
+      <c r="AG28" s="2"/>
       <c r="AI28">
         <v>1.5</v>
       </c>
@@ -716,8 +733,8 @@
         <v>12</v>
       </c>
       <c r="AQ28">
-        <f>(7.5+9)*4/3</f>
-        <v>22</v>
+        <f>(7.5+9)*4/3-15</f>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -733,7 +750,7 @@
       <c r="AE29">
         <v>3</v>
       </c>
-      <c r="AG29" s="3"/>
+      <c r="AG29" s="2"/>
       <c r="AN29">
         <v>3</v>
       </c>
@@ -761,9 +778,16 @@
       <c r="AB30">
         <v>1.5</v>
       </c>
-      <c r="AG30" s="3"/>
+      <c r="AG30" s="2"/>
       <c r="AJ30">
         <v>1.5</v>
+      </c>
+      <c r="AP30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ30">
+        <f>(16.5*4*5+22*3*4)/(20+12) - 15</f>
+        <v>3.5625</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -779,7 +803,7 @@
       <c r="AF31">
         <v>3</v>
       </c>
-      <c r="AG31" s="3"/>
+      <c r="AG31" s="2"/>
       <c r="AO31">
         <v>3</v>
       </c>
@@ -800,12 +824,12 @@
       <c r="AC32">
         <v>1.5</v>
       </c>
-      <c r="AG32" s="3"/>
+      <c r="AG32" s="2"/>
       <c r="AK32">
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:41">
       <c r="A33">
         <v>7</v>
       </c>
@@ -815,11 +839,11 @@
       <c r="X33">
         <v>3</v>
       </c>
-      <c r="AG33" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:38">
+      <c r="AG33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41">
       <c r="A34">
         <v>8</v>
       </c>
@@ -835,26 +859,29 @@
       <c r="AD34">
         <v>1.5</v>
       </c>
-      <c r="AG34" s="3"/>
+      <c r="AG34" s="2"/>
       <c r="AL34">
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:41">
       <c r="A35">
         <v>9</v>
       </c>
-      <c r="AG35" s="3"/>
-    </row>
-    <row r="37" spans="1:38">
-      <c r="A37" s="2" t="s">
+      <c r="AG35" s="2"/>
+    </row>
+    <row r="37" spans="1:41">
+      <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:38">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="J37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41">
       <c r="A38">
         <v>0</v>
       </c>
@@ -862,24 +889,36 @@
         <v>2.5</v>
       </c>
       <c r="I38">
-        <v>2.5</v>
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1.5</v>
       </c>
       <c r="O38" s="3"/>
-      <c r="P38">
-        <v>2.5</v>
-      </c>
-      <c r="Y38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6">
-        <f>12.5+8</f>
-        <v>20.5</v>
-      </c>
-      <c r="AC38" s="6"/>
-    </row>
-    <row r="39" spans="1:38">
+      <c r="Q38">
+        <v>2.5</v>
+      </c>
+      <c r="X38" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39">
         <v>1</v>
       </c>
@@ -887,739 +926,1114 @@
         <v>4</v>
       </c>
       <c r="O39" s="3"/>
-      <c r="U39">
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AD39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39">
         <v>4</v>
       </c>
-      <c r="Y39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
-      <c r="AB39">
-        <f>12.5+8+12.5+8</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:38">
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+    </row>
+    <row r="40" spans="1:41">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="C40">
         <v>2.5</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>2.5</v>
       </c>
       <c r="O40" s="3"/>
-      <c r="Q40">
-        <v>2.5</v>
-      </c>
-      <c r="Y40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="1">
-        <f>(41-14)/41</f>
-        <v>0.65853658536585369</v>
-      </c>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-    </row>
-    <row r="41" spans="1:38">
+      <c r="R40">
+        <v>2.5</v>
+      </c>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+    </row>
+    <row r="41" spans="1:41">
       <c r="A41">
         <v>3</v>
       </c>
       <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="O41" s="3">
         <v>4</v>
       </c>
-      <c r="O41" s="3"/>
-      <c r="V41">
-        <v>4</v>
-      </c>
-      <c r="Z41" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA41" s="6"/>
-      <c r="AB41">
-        <f>12.5+8+12.5+8</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:38">
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+    </row>
+    <row r="42" spans="1:41">
       <c r="A42">
         <v>4</v>
       </c>
       <c r="D42">
         <v>2.5</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>2.5</v>
       </c>
       <c r="O42" s="3"/>
-      <c r="R42">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:38">
+      <c r="S42">
+        <v>2.5</v>
+      </c>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="6">
+        <f>70/4</f>
+        <v>17.5</v>
+      </c>
+      <c r="AN42" s="6"/>
+    </row>
+    <row r="43" spans="1:41">
       <c r="A43">
         <v>5</v>
       </c>
-      <c r="N43">
+      <c r="O43" s="3"/>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="V43">
         <v>4</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="1:38">
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
+      <c r="AM43">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41">
       <c r="A44">
         <v>6</v>
       </c>
       <c r="E44">
         <v>2.5</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>2.5</v>
       </c>
       <c r="O44" s="3"/>
-      <c r="S44">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:38">
+      <c r="T44">
+        <v>2.5</v>
+      </c>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AB44" s="5"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK44" s="8"/>
+      <c r="AL44" s="8"/>
+      <c r="AM44" s="5">
+        <f>(70-28)/70</f>
+        <v>0.6</v>
+      </c>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+    </row>
+    <row r="45" spans="1:41">
       <c r="A45">
         <v>7</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3"/>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:38">
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL45" s="8"/>
+      <c r="AM45">
+        <f>(12.5+5)*4</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41">
       <c r="A46">
         <v>8</v>
       </c>
       <c r="F46">
         <v>2.5</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>2.5</v>
       </c>
       <c r="O46" s="3"/>
-      <c r="T46">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:38">
+      <c r="U46">
+        <v>2.5</v>
+      </c>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AJ46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46">
+        <f>(17.5*4*5+70*4)/24</f>
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41">
       <c r="A47">
         <v>9</v>
       </c>
       <c r="O47" s="3"/>
-    </row>
-    <row r="49" spans="1:37">
-      <c r="A49" s="1" t="s">
+      <c r="AD47" s="2"/>
+    </row>
+    <row r="49" spans="1:46">
+      <c r="A49" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:37">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="J49" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:46">
       <c r="A50">
         <v>0</v>
       </c>
       <c r="B50">
         <v>1.5</v>
       </c>
-      <c r="L50" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="3"/>
-      <c r="W50">
-        <v>1.5</v>
-      </c>
-      <c r="AG50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH50" s="6"/>
-      <c r="AI50" s="6"/>
-      <c r="AJ50">
-        <f>7.5+12+5.5+55</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:37">
+      <c r="K50" s="3"/>
+      <c r="L50" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50">
+        <v>1.5</v>
+      </c>
+      <c r="AG50" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
+      <c r="AQ50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR50">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:46">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="G51">
         <v>3</v>
       </c>
-      <c r="L51" s="5"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4">
-        <v>3</v>
-      </c>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="3"/>
-      <c r="AB51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:37">
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3">
+        <v>3</v>
+      </c>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="AA51">
+        <v>3</v>
+      </c>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5">
+        <v>3</v>
+      </c>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="2"/>
+    </row>
+    <row r="52" spans="1:46">
       <c r="A52">
         <v>2</v>
       </c>
       <c r="C52">
         <v>1.5</v>
       </c>
-      <c r="L52" s="5"/>
-      <c r="M52" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="3"/>
-      <c r="X52">
-        <v>1.5</v>
-      </c>
-      <c r="AG52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH52" s="6"/>
-      <c r="AI52" s="6"/>
-      <c r="AJ52" s="6">
-        <f>80/55</f>
-        <v>1.4545454545454546</v>
-      </c>
-      <c r="AK52" s="6"/>
-    </row>
-    <row r="53" spans="1:37">
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="W52">
+        <v>1.5</v>
+      </c>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="2"/>
+      <c r="AS52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT52">
+        <f>(7.5+12+7)*7+7.5+12+6+1</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:46">
       <c r="A53">
         <v>3</v>
       </c>
       <c r="H53">
         <v>3</v>
       </c>
-      <c r="L53" s="5"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4">
-        <v>3</v>
-      </c>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="3"/>
-      <c r="AC53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:37">
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3">
+        <v>3</v>
+      </c>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="AB53">
+        <v>3</v>
+      </c>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5">
+        <v>3</v>
+      </c>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="2"/>
+      <c r="AS53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT53">
+        <f>7.5+12+7</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:46">
       <c r="A54">
         <v>4</v>
       </c>
       <c r="D54">
         <v>1.5</v>
       </c>
-      <c r="L54" s="5"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="3"/>
-      <c r="Y54">
-        <v>1.5</v>
-      </c>
-      <c r="AH54" s="6" t="s">
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="X54">
+        <v>1.5</v>
+      </c>
+      <c r="AF54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="2"/>
+      <c r="AS54" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AI54" s="6"/>
-      <c r="AJ54" s="1">
-        <f>(7.5+12+55)/(7.5+12+5.5+55)</f>
-        <v>0.93125000000000002</v>
-      </c>
-      <c r="AK54" s="1"/>
-    </row>
-    <row r="55" spans="1:37">
+      <c r="AT54">
+        <f>(212-1)/212</f>
+        <v>0.99528301886792447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:46">
       <c r="A55">
         <v>5</v>
       </c>
       <c r="I55">
         <v>3</v>
       </c>
-      <c r="L55" s="5"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4">
-        <v>3</v>
-      </c>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="3"/>
-      <c r="AD55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:37">
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3">
+        <v>3</v>
+      </c>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="AC55">
+        <v>3</v>
+      </c>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5"/>
+      <c r="AK55" s="5"/>
+      <c r="AL55" s="5"/>
+      <c r="AM55" s="5"/>
+      <c r="AN55" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO55" s="5"/>
+      <c r="AP55" s="5"/>
+      <c r="AQ55" s="2"/>
+      <c r="AS55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT55">
+        <f>212/55</f>
+        <v>3.8545454545454545</v>
+      </c>
+    </row>
+    <row r="56" spans="1:46">
       <c r="A56">
         <v>6</v>
       </c>
       <c r="E56">
         <v>1.5</v>
       </c>
-      <c r="L56" s="5"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="3"/>
-      <c r="Z56">
-        <v>1.5</v>
-      </c>
-      <c r="AH56" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI56" s="6"/>
-      <c r="AJ56">
-        <f>7.5+12+5.5+55</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:37">
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="Y56">
+        <v>1.5</v>
+      </c>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="5"/>
+      <c r="AO56" s="5"/>
+      <c r="AP56" s="5"/>
+      <c r="AQ56" s="2"/>
+    </row>
+    <row r="57" spans="1:46">
       <c r="A57">
         <v>7</v>
       </c>
       <c r="J57">
         <v>3</v>
       </c>
-      <c r="L57" s="5"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4">
-        <v>3</v>
-      </c>
-      <c r="U57" s="4"/>
-      <c r="V57" s="3"/>
-      <c r="AE57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:37">
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3"/>
+      <c r="AD57">
+        <v>3</v>
+      </c>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
+      <c r="AJ57" s="5"/>
+      <c r="AK57" s="5"/>
+      <c r="AL57" s="5"/>
+      <c r="AM57" s="5"/>
+      <c r="AN57" s="5"/>
+      <c r="AO57" s="5">
+        <v>3</v>
+      </c>
+      <c r="AP57" s="5"/>
+      <c r="AQ57" s="2"/>
+    </row>
+    <row r="58" spans="1:46">
       <c r="A58">
         <v>8</v>
       </c>
       <c r="F58">
         <v>1.5</v>
       </c>
-      <c r="L58" s="5"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="3"/>
-      <c r="AA58">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:37">
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="Z58">
+        <v>1.5</v>
+      </c>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+      <c r="AJ58" s="5"/>
+      <c r="AK58" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AL58" s="5"/>
+      <c r="AM58" s="5"/>
+      <c r="AN58" s="5"/>
+      <c r="AO58" s="5"/>
+      <c r="AP58" s="5"/>
+      <c r="AQ58" s="2"/>
+    </row>
+    <row r="59" spans="1:46">
       <c r="A59">
         <v>9</v>
       </c>
-      <c r="K59">
-        <v>55</v>
-      </c>
-      <c r="L59" s="5"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="V59" s="3">
-        <v>55</v>
-      </c>
-      <c r="AF59">
-        <v>5.5</v>
-      </c>
-      <c r="AG59">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:37">
+      <c r="K59" s="3">
+        <v>7</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3">
+        <v>7</v>
+      </c>
+      <c r="V59" s="3"/>
+      <c r="AE59">
+        <v>7</v>
+      </c>
+      <c r="AG59" s="3"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5"/>
+      <c r="AK59" s="5"/>
+      <c r="AL59" s="5"/>
+      <c r="AM59" s="5"/>
+      <c r="AN59" s="5"/>
+      <c r="AO59" s="5"/>
+      <c r="AP59" s="5">
+        <v>6</v>
+      </c>
+      <c r="AQ59" s="2"/>
+    </row>
+    <row r="61" spans="1:46">
       <c r="A61" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:37">
+      <c r="J61" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:46">
       <c r="A62">
         <v>0</v>
       </c>
-      <c r="B62" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
+      <c r="B62" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="O62" s="3"/>
       <c r="P62" s="3"/>
-      <c r="Q62">
-        <v>2.5</v>
-      </c>
-      <c r="AA62" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB62" s="6"/>
-      <c r="AC62" s="6"/>
-      <c r="AD62" s="6">
-        <f>(25+16+56)/2</f>
-        <v>48.5</v>
-      </c>
-      <c r="AE62" s="6"/>
-    </row>
-    <row r="63" spans="1:37">
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="AF62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="6">
+        <v>29.5</v>
+      </c>
+      <c r="AJ62" s="6"/>
+      <c r="AK62" s="6"/>
+    </row>
+    <row r="63" spans="1:46">
       <c r="A63">
         <v>1</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3">
         <v>4</v>
       </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
       <c r="P63" s="3"/>
-      <c r="V63">
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="5">
         <v>4</v>
       </c>
-      <c r="AA63" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB63" s="6"/>
-      <c r="AC63" s="6"/>
-      <c r="AD63">
-        <f>25+16+56</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:37">
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="6"/>
+      <c r="AI63" s="6"/>
+      <c r="AJ63" s="6"/>
+      <c r="AK63" s="5"/>
+    </row>
+    <row r="64" spans="1:46">
       <c r="A64">
         <v>2</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3">
+        <v>2.5</v>
+      </c>
       <c r="P64" s="3"/>
-      <c r="R64">
-        <v>2.5</v>
-      </c>
-      <c r="AA64" s="6" t="s">
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="AF64" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AB64" s="6"/>
-      <c r="AC64" s="6"/>
-      <c r="AD64" s="6">
-        <f>(25+16+56)/55</f>
-        <v>1.7636363636363637</v>
-      </c>
-      <c r="AE64" s="6"/>
-    </row>
-    <row r="65" spans="1:31">
+      <c r="AG64" s="8"/>
+      <c r="AH64" s="8"/>
+      <c r="AI64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="6"/>
+    </row>
+    <row r="65" spans="1:37">
       <c r="A65">
         <v>3</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3">
         <v>4</v>
       </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
       <c r="P65" s="3"/>
-      <c r="W65">
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5">
         <v>4</v>
       </c>
-      <c r="AB65" s="6" t="s">
+      <c r="U65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="AF65" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AC65" s="6"/>
-      <c r="AD65" s="6">
-        <f>(97-15)/97</f>
-        <v>0.84536082474226804</v>
-      </c>
-      <c r="AE65" s="6"/>
-    </row>
-    <row r="66" spans="1:31">
+      <c r="AG65" s="8"/>
+      <c r="AH65" s="8"/>
+      <c r="AI65">
+        <f>(29.5-10)/29.5</f>
+        <v>0.66101694915254239</v>
+      </c>
+      <c r="AJ65" s="6"/>
+      <c r="AK65" s="6"/>
+    </row>
+    <row r="66" spans="1:37">
       <c r="A66">
         <v>4</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="3"/>
-      <c r="S66">
-        <v>2.5</v>
-      </c>
-      <c r="AB66" s="6" t="s">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="AF66" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AC66" s="6"/>
-      <c r="AD66">
-        <f>12.5+16+12.5+56</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31">
+      <c r="AG66" s="8"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66">
+        <f>12.5+12+5</f>
+        <v>29.5</v>
+      </c>
+      <c r="AJ66" s="6"/>
+      <c r="AK66" s="5"/>
+    </row>
+    <row r="67" spans="1:37">
       <c r="A67">
         <v>5</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3">
         <v>4</v>
       </c>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
+      <c r="J67" s="3"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-      <c r="X67">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:31">
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+    </row>
+    <row r="68" spans="1:37">
       <c r="A68">
         <v>6</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="O68" s="4"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
       <c r="P68" s="3"/>
-      <c r="T68">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31">
+      <c r="Q68" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="R68" s="3"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5"/>
+    </row>
+    <row r="69" spans="1:37">
       <c r="A69">
         <v>7</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4">
-        <v>4</v>
-      </c>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69" s="3">
+        <v>1</v>
+      </c>
+      <c r="M69" s="11">
+        <v>1</v>
+      </c>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
       <c r="P69" s="3"/>
-      <c r="Y69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31">
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5">
+        <v>1</v>
+      </c>
+      <c r="W69" s="5">
+        <v>2</v>
+      </c>
+      <c r="X69" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5"/>
+    </row>
+    <row r="70" spans="1:37">
       <c r="A70">
         <v>8</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4">
-        <v>2.5</v>
-      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
       <c r="P70" s="3"/>
-      <c r="U70">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31">
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+    </row>
+    <row r="71" spans="1:37">
       <c r="A71">
         <v>9</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="3">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+    </row>
+    <row r="73" spans="1:37">
       <c r="A73" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:37">
       <c r="A74">
         <v>0</v>
       </c>
@@ -1633,7 +2047,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:37">
       <c r="A75">
         <v>1</v>
       </c>
@@ -1641,7 +2055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:37">
       <c r="A76">
         <v>2</v>
       </c>
@@ -1652,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:37">
       <c r="A77">
         <v>3</v>
       </c>
@@ -1660,7 +2074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:37">
       <c r="A78">
         <v>4</v>
       </c>
@@ -1668,7 +2082,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:37">
       <c r="A79">
         <v>5</v>
       </c>
@@ -1676,7 +2090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:37">
       <c r="A80">
         <v>6</v>
       </c>
@@ -1684,7 +2098,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:21">
       <c r="A81">
         <v>7</v>
       </c>
@@ -1692,7 +2106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:21">
       <c r="A82">
         <v>8</v>
       </c>
@@ -1700,38 +2114,218 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:21">
       <c r="A83">
         <v>9</v>
       </c>
     </row>
+    <row r="85" spans="1:21">
+      <c r="A85" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86" s="4">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>1.5</v>
+      </c>
+      <c r="L86" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="A87" s="4">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4">
+        <v>3</v>
+      </c>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88" s="4">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>1.5</v>
+      </c>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="A89" s="4">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4">
+        <v>3</v>
+      </c>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90" s="4">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>1.5</v>
+      </c>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="A91" s="4">
+        <v>5</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4">
+        <v>3</v>
+      </c>
+      <c r="T91" s="4"/>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="A92" s="4">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>1.5</v>
+      </c>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93" s="4">
+        <v>7</v>
+      </c>
+      <c r="J93">
+        <v>3</v>
+      </c>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
+      <c r="A94" s="4">
+        <v>8</v>
+      </c>
+      <c r="F94">
+        <v>1.5</v>
+      </c>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+    </row>
+    <row r="95" spans="1:21">
+      <c r="A95" s="4">
+        <v>9</v>
+      </c>
+      <c r="K95">
+        <v>55</v>
+      </c>
+      <c r="U95">
+        <v>5.5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="AB66:AC66"/>
-    <mergeCell ref="AA62:AC62"/>
-    <mergeCell ref="AD62:AE62"/>
-    <mergeCell ref="AA63:AC63"/>
-    <mergeCell ref="AA64:AC64"/>
-    <mergeCell ref="AD64:AE64"/>
-    <mergeCell ref="AB65:AC65"/>
-    <mergeCell ref="AD65:AE65"/>
-    <mergeCell ref="AG52:AI52"/>
-    <mergeCell ref="AJ52:AK52"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AH56:AI56"/>
-    <mergeCell ref="AB40:AD40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="AJ54:AK54"/>
-    <mergeCell ref="AG50:AI50"/>
-    <mergeCell ref="AH54:AI54"/>
+  <mergeCells count="15">
+    <mergeCell ref="AF65:AH65"/>
+    <mergeCell ref="AF66:AH66"/>
+    <mergeCell ref="AF62:AH62"/>
+    <mergeCell ref="AF64:AH64"/>
+    <mergeCell ref="AJ46:AL46"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A49:D49"/>
+    <mergeCell ref="AJ42:AL42"/>
+    <mergeCell ref="AJ43:AL43"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="A85:D85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
